--- a/resultados/textos_classificados.xlsx
+++ b/resultados/textos_classificados.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>n_classe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>classe</t>
         </is>
       </c>
     </row>
